--- a/biology/Virologie/Oleavirus/Oleavirus.xlsx
+++ b/biology/Virologie/Oleavirus/Oleavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus latent 2 de l'olivier, Olive latent virus 2, est une espèce de virus du genre Oleavirus (famille des Bromoviridae), dont elle est l'unique espèce (genre monotypique).
 C'est un virus à ARN linéaire, à simple brin et à polarité positive (ssRNA), classés dans le groupe IV de la classification Baltimore. Ce virus infecte des plantes (phytovirus).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Oleavirus », dérive du nom de genre des plantes-hôtes, Olea, l'olivier[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Oleavirus », dérive du nom de genre des plantes-hôtes, Olea, l'olivier.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules non enveloppées de 26 nm de diamètre, quasi sphérique à symétrie icosaédrique de type T=1, ou bacilliforme. Les trois segments génomiques et un ARN sous-génomique sont encapsidés dans des particules distinctes, formant des virions de plusieurs types[4].
-Le génome segmenté, tripartite, est constitué de trois molécules d'ARN à simple brin, linéaire, de sens positif, ARN1, ARN2, ARN3 de 3126, 2734 et 2438 nucléotides respectivement. Chaque segment génomique a une structure de type ARNt à l'extrémité 3 'et un coiffe à l'extrémité 5'[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules non enveloppées de 26 nm de diamètre, quasi sphérique à symétrie icosaédrique de type T=1, ou bacilliforme. Les trois segments génomiques et un ARN sous-génomique sont encapsidés dans des particules distinctes, formant des virions de plusieurs types.
+Le génome segmenté, tripartite, est constitué de trois molécules d'ARN à simple brin, linéaire, de sens positif, ARN1, ARN2, ARN3 de 3126, 2734 et 2438 nucléotides respectivement. Chaque segment génomique a une structure de type ARNt à l'extrémité 3 'et un coiffe à l'extrémité 5'.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Souches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (18 février 2021)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 février 2021) :
 non classé Olive latent virus 2 isolate Italy</t>
         </is>
       </c>
